--- a/server/course_24_S_BM.xlsx
+++ b/server/course_24_S_BM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="87">
   <si>
     <t>Class Nbr</t>
   </si>
@@ -64,37 +64,40 @@
     <t>TUTH</t>
   </si>
   <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>Jeehong Kim</t>
+  </si>
+  <si>
     <t>B103</t>
   </si>
   <si>
-    <t>Jeehong Kim</t>
-  </si>
-  <si>
-    <t>B207</t>
-  </si>
-  <si>
     <t>Koren Jo</t>
   </si>
   <si>
     <t>Managerial Cost Analysis and Applications</t>
   </si>
   <si>
-    <t>F</t>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>B206</t>
   </si>
   <si>
     <t>Soo Young Kwon</t>
   </si>
   <si>
+    <t>Intermediate Accounting I</t>
+  </si>
+  <si>
     <t>BUS</t>
   </si>
   <si>
     <t>Intro to Business Statistics</t>
   </si>
   <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>B203</t>
+    <t>B105</t>
   </si>
   <si>
     <t>Jaeyeong Lee</t>
@@ -124,93 +127,90 @@
     <t>Principles of Finance</t>
   </si>
   <si>
+    <t>Joung Hwa Choi</t>
+  </si>
+  <si>
     <t>Sung Sup Choi</t>
   </si>
   <si>
+    <t>International Finance</t>
+  </si>
+  <si>
     <t>Integrated Mktg Communications</t>
   </si>
   <si>
-    <t>Dae Ryun Chang</t>
-  </si>
-  <si>
-    <t>Information Systems in Management</t>
-  </si>
-  <si>
-    <t>TECH</t>
+    <t>Dae Pyun Chang</t>
+  </si>
+  <si>
+    <t>Operations Management</t>
+  </si>
+  <si>
+    <t>Principles of Marketing</t>
+  </si>
+  <si>
+    <t>Jinyong Lee</t>
+  </si>
+  <si>
+    <t>Entrepreneurship</t>
+  </si>
+  <si>
+    <t>A704</t>
+  </si>
+  <si>
+    <t>Investment Analysis</t>
+  </si>
+  <si>
+    <t>Consumer Behavior</t>
+  </si>
+  <si>
+    <t>TU</t>
   </si>
   <si>
     <t>A724</t>
   </si>
   <si>
-    <t>Kyung Kyu Kim</t>
-  </si>
-  <si>
-    <t>Operations Management</t>
-  </si>
-  <si>
-    <t>Principles of Marketing</t>
-  </si>
-  <si>
-    <t>Noelle Chung</t>
-  </si>
-  <si>
-    <t>Entrepreneurship</t>
+    <t>Young-Won Ha</t>
+  </si>
+  <si>
+    <t>Brand Management</t>
+  </si>
+  <si>
+    <t>Financial Management</t>
+  </si>
+  <si>
+    <t>ESI</t>
   </si>
   <si>
     <t>B314</t>
   </si>
   <si>
-    <t>Investment Analysis</t>
-  </si>
-  <si>
-    <t>B205</t>
-  </si>
-  <si>
-    <t>Joung Hwa Choi</t>
-  </si>
-  <si>
-    <t>Marketing Research</t>
-  </si>
-  <si>
-    <t>ESI</t>
-  </si>
-  <si>
-    <t>A211</t>
-  </si>
-  <si>
-    <t>Consumer Behavior</t>
-  </si>
-  <si>
-    <t>TU</t>
-  </si>
-  <si>
-    <t>Young-Won Ha</t>
-  </si>
-  <si>
-    <t>Financial Management</t>
-  </si>
-  <si>
-    <t>A117</t>
-  </si>
-  <si>
-    <t>Money and Financial Inst.</t>
+    <t>Data Mining</t>
+  </si>
+  <si>
+    <t>Kyungkyu Kim</t>
   </si>
   <si>
     <t>Business Ethics</t>
   </si>
   <si>
-    <t>CER</t>
+    <t>CEP</t>
   </si>
   <si>
     <t>TH</t>
   </si>
   <si>
-    <t>C103</t>
+    <t>C107</t>
   </si>
   <si>
     <t>In Ki Joo</t>
   </si>
   <si>
+    <t>Marketing Strategy</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
     <t>Undergrad Teachng Practicum I</t>
   </si>
   <si>
@@ -235,12 +235,24 @@
     <t>T93</t>
   </si>
   <si>
+    <t>Noelle (Myunghun) Chung</t>
+  </si>
+  <si>
     <t>T94</t>
   </si>
   <si>
     <t>T95</t>
   </si>
   <si>
+    <t>T96</t>
+  </si>
+  <si>
+    <t>T97</t>
+  </si>
+  <si>
+    <t>T98</t>
+  </si>
+  <si>
     <t>T99</t>
   </si>
   <si>
@@ -250,10 +262,16 @@
     <t>T101</t>
   </si>
   <si>
+    <t>T102</t>
+  </si>
+  <si>
     <t>Undergrad Teachng Practicum II</t>
   </si>
   <si>
     <t>T90</t>
+  </si>
+  <si>
+    <t>Internship</t>
   </si>
 </sst>
 </file>
@@ -348,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -387,6 +405,9 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,7 +668,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>92844.0</v>
+        <v>52619.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
@@ -686,7 +707,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8">
-        <v>92858.0</v>
+        <v>52629.0</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>13</v>
@@ -725,7 +746,7 @@
     </row>
     <row r="4">
       <c r="A4" s="8">
-        <v>92877.0</v>
+        <v>56514.0</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -750,27 +771,27 @@
         <v>22</v>
       </c>
       <c r="J4" s="12">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="K4" s="12">
         <v>0.4930555555555556</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8">
-        <v>92845.0</v>
+        <v>52671.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8">
-        <v>215.0</v>
+        <v>310.0</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>25</v>
@@ -786,37 +807,35 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J5" s="12">
-        <v>0.6458333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K5" s="12">
-        <v>0.7013888888888888</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8">
-        <v>92850.0</v>
+        <v>52618.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="8">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E6" s="13"/>
       <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
@@ -827,36 +846,36 @@
         <v>3.0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J6" s="12">
-        <v>0.7083333333333334</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="K6" s="12">
-        <v>0.7638888888888888</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8">
-        <v>92857.0</v>
+        <v>52621.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8">
-        <v>326.0</v>
+        <v>220.0</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>15</v>
@@ -868,40 +887,42 @@
         <v>3.0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J7" s="12">
-        <v>0.7083333333333334</v>
+        <v>0.4375</v>
       </c>
       <c r="K7" s="12">
-        <v>0.7638888888888888</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8">
-        <v>96965.0</v>
+        <v>52630.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="8">
-        <v>330.0</v>
+        <v>326.0</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="8">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="H8" s="8">
         <v>3.0</v>
@@ -910,30 +931,30 @@
         <v>16</v>
       </c>
       <c r="J8" s="12">
-        <v>0.5833333333333334</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="K8" s="12">
-        <v>0.6388888888888888</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8">
-        <v>92872.0</v>
+        <v>52622.0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8">
-        <v>334.0</v>
+        <v>330.0</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="9" t="s">
@@ -946,74 +967,72 @@
         <v>3.0</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J9" s="12">
-        <v>0.5833333333333334</v>
+        <v>0.4375</v>
       </c>
       <c r="K9" s="12">
-        <v>0.6388888888888888</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8">
-        <v>92873.0</v>
+        <v>56515.0</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8">
-        <v>340.0</v>
+        <v>330.0</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E10" s="13"/>
       <c r="F10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="8">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="H10" s="8">
         <v>3.0</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J10" s="12">
-        <v>0.4375</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K10" s="12">
-        <v>0.4930555555555556</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8">
-        <v>92851.0</v>
+        <v>56516.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8">
-        <v>346.0</v>
+        <v>331.0</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="9" t="s">
@@ -1026,33 +1045,33 @@
         <v>3.0</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J11" s="12">
-        <v>0.6458333333333334</v>
+        <v>0.4375</v>
       </c>
       <c r="K11" s="12">
-        <v>0.7013888888888888</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8">
-        <v>92848.0</v>
+        <v>57031.0</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="8">
-        <v>348.0</v>
+        <v>334.0</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="9" t="s">
@@ -1065,72 +1084,72 @@
         <v>3.0</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J12" s="12">
-        <v>0.7083333333333334</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="K12" s="12">
-        <v>0.7638888888888888</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8">
-        <v>92875.0</v>
+        <v>52624.0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8">
-        <v>348.0</v>
+        <v>346.0</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="8">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="H13" s="8">
         <v>3.0</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J13" s="12">
-        <v>0.4375</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="K13" s="12">
-        <v>0.4930555555555556</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8">
-        <v>92855.0</v>
+        <v>52623.0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8">
-        <v>353.0</v>
+        <v>348.0</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="9" t="s">
@@ -1143,76 +1162,74 @@
         <v>3.0</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J14" s="12">
-        <v>0.6458333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K14" s="12">
-        <v>0.7013888888888888</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8">
-        <v>92874.0</v>
+        <v>52673.0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8">
-        <v>355.0</v>
+        <v>348.0</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="8">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="H15" s="8">
         <v>3.0</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J15" s="12">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="K15" s="12">
-        <v>0.4305555555555556</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8">
-        <v>92859.0</v>
+        <v>52626.0</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8">
-        <v>358.0</v>
+        <v>353.0</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E16" s="13"/>
       <c r="F16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1240,7 @@
         <v>3.0</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J16" s="12">
         <v>0.6458333333333334</v>
@@ -1232,24 +1249,24 @@
         <v>0.7013888888888888</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8">
-        <v>92861.0</v>
+        <v>52674.0</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" s="8">
-        <v>359.0</v>
+        <v>355.0</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="9" t="s">
@@ -1262,37 +1279,35 @@
         <v>3.0</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="J17" s="12">
-        <v>0.5833333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="K17" s="12">
-        <v>0.7013888888888888</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8">
-        <v>92865.0</v>
+        <v>52631.0</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="8">
-        <v>365.0</v>
+        <v>359.0</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>53</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E18" s="13"/>
       <c r="F18" s="9" t="s">
         <v>15</v>
       </c>
@@ -1303,33 +1318,33 @@
         <v>3.0</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J18" s="12">
         <v>0.5833333333333334</v>
       </c>
       <c r="K18" s="12">
-        <v>0.6388888888888888</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8">
-        <v>92866.0</v>
+        <v>52676.0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" s="8">
-        <v>366.0</v>
+        <v>363.0</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="9" t="s">
@@ -1342,36 +1357,36 @@
         <v>3.0</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J19" s="12">
-        <v>0.4375</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K19" s="12">
-        <v>0.4930555555555556</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8">
-        <v>92856.0</v>
+        <v>52628.0</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="8">
-        <v>447.0</v>
+        <v>365.0</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>15</v>
@@ -1383,150 +1398,146 @@
         <v>3.0</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="J20" s="12">
-        <v>0.4375</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K20" s="12">
-        <v>0.5555555555555556</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8">
-        <v>92849.0</v>
+        <v>52677.0</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="8">
-        <v>475.0</v>
+        <v>375.0</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>67</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E21" s="13"/>
       <c r="F21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>69</v>
+        <v>15</v>
+      </c>
+      <c r="G21" s="8">
+        <v>90.0</v>
       </c>
       <c r="H21" s="8">
         <v>3.0</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J21" s="12">
-        <v>0.041666666666666664</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K21" s="12">
-        <v>0.041666666666666664</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8">
-        <v>92853.0</v>
+        <v>52632.0</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" s="8">
-        <v>475.0</v>
+        <v>447.0</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>72</v>
+        <v>15</v>
+      </c>
+      <c r="G22" s="8">
+        <v>90.0</v>
       </c>
       <c r="H22" s="8">
         <v>3.0</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J22" s="12">
-        <v>0.041666666666666664</v>
+        <v>0.4375</v>
       </c>
       <c r="K22" s="12">
-        <v>0.041666666666666664</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8">
-        <v>92854.0</v>
+        <v>52633.0</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" s="8">
-        <v>475.0</v>
+        <v>448.0</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>67</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E23" s="13"/>
       <c r="F23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>73</v>
+        <v>15</v>
+      </c>
+      <c r="G23" s="8">
+        <v>90.0</v>
       </c>
       <c r="H23" s="8">
         <v>3.0</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J23" s="12">
-        <v>0.041666666666666664</v>
+        <v>0.4375</v>
       </c>
       <c r="K23" s="12">
-        <v>0.041666666666666664</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8">
-        <v>92862.0</v>
+        <v>52620.0</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C24" s="8">
         <v>475.0</v>
@@ -1541,7 +1552,7 @@
         <v>68</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H24" s="8">
         <v>3.0</v>
@@ -1559,15 +1570,15 @@
         <v>71</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8">
-        <v>92863.0</v>
+        <v>52627.0</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25" s="8">
         <v>475.0</v>
@@ -1582,7 +1593,7 @@
         <v>68</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H25" s="8">
         <v>3.0</v>
@@ -1600,15 +1611,15 @@
         <v>71</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8">
-        <v>97245.0</v>
+        <v>56517.0</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" s="8">
         <v>475.0</v>
@@ -1623,7 +1634,7 @@
         <v>68</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H26" s="8">
         <v>3.0</v>
@@ -1641,15 +1652,15 @@
         <v>71</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8">
-        <v>97246.0</v>
+        <v>56518.0</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C27" s="8">
         <v>475.0</v>
@@ -1664,7 +1675,7 @@
         <v>68</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H27" s="8">
         <v>3.0</v>
@@ -1682,15 +1693,15 @@
         <v>71</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8">
-        <v>97247.0</v>
+        <v>52634.0</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28" s="8">
         <v>475.0</v>
@@ -1705,7 +1716,7 @@
         <v>68</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H28" s="8">
         <v>3.0</v>
@@ -1723,21 +1734,21 @@
         <v>71</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8">
-        <v>92846.0</v>
+        <v>52635.0</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C29" s="8">
-        <v>488.0</v>
+        <v>475.0</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>67</v>
@@ -1746,7 +1757,7 @@
         <v>68</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H29" s="8">
         <v>3.0</v>
@@ -1764,6 +1775,375 @@
         <v>71</v>
       </c>
       <c r="M29" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8">
+        <v>52636.0</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="8">
+        <v>475.0</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8">
+        <v>56612.0</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="8">
+        <v>475.0</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8">
+        <v>56613.0</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="8">
+        <v>475.0</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8">
+        <v>57079.0</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="8">
+        <v>475.0</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8">
+        <v>57080.0</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="8">
+        <v>475.0</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8">
+        <v>57081.0</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="8">
+        <v>475.0</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8">
+        <v>56519.0</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="8">
+        <v>476.0</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8">
+        <v>56520.0</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="8">
+        <v>476.0</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8">
+        <v>52625.0</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="8">
+        <v>488.0</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M38" s="9" t="s">
         <v>18</v>
       </c>
     </row>
